--- a/cmd/assmt-increase/templ/SQSD_AssmtIncrease_.xlsx
+++ b/cmd/assmt-increase/templ/SQSD_AssmtIncrease_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\git\millage-analysis\cmd\assmt-increase\templ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1C7F59-C2D3-42FB-8976-29AE3DFAA07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3D4999-526C-4670-92B8-D6671BB30056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37110" yWindow="1050" windowWidth="16440" windowHeight="13830" xr2:uid="{3A8E5735-D356-442B-A169-57D197D12D25}"/>
+    <workbookView xWindow="33195" yWindow="1650" windowWidth="16440" windowHeight="13830" xr2:uid="{3A8E5735-D356-442B-A169-57D197D12D25}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -981,7 +981,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,9 +1050,7 @@
       <c r="A8" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="26">
-        <v>3312751173</v>
-      </c>
+      <c r="B8" s="26"/>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1071,7 +1069,7 @@
       </c>
       <c r="B10" s="26">
         <f>TaxableRE -TotDiff</f>
-        <v>3312751173</v>
+        <v>0</v>
       </c>
       <c r="C10" s="10"/>
     </row>
@@ -1080,7 +1078,8 @@
         <v>55</v>
       </c>
       <c r="B11" s="14">
-        <v>42028874.130000003</v>
+        <f>B8*B12 /1000</f>
+        <v>0</v>
       </c>
       <c r="C11" s="10"/>
     </row>
@@ -1089,8 +1088,7 @@
         <v>56</v>
       </c>
       <c r="B12" s="23">
-        <f>GrossTaxIncome * 1000 / TaxableRE</f>
-        <v>12.68699999944125</v>
+        <v>11.369899999999999</v>
       </c>
       <c r="C12" s="10"/>
     </row>
@@ -1098,9 +1096,9 @@
       <c r="A13" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="28" t="e">
         <f>GrossTaxIncome *1000 / B10</f>
-        <v>12.68699999944125</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1514,15 +1512,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="2946a673-d5a9-4cb6-8d2e-83faa8513315" xsi:nil="true"/>
@@ -1531,6 +1520,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1777,20 +1775,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25451019-4A9C-4BD8-8D97-2D3DE9F6310E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{909EC3A9-2385-459C-B3D5-20D29D5D9270}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="2946a673-d5a9-4cb6-8d2e-83faa8513315"/>
     <ds:schemaRef ds:uri="f5e632d0-d242-45dd-ac9d-926d75bf6ed0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25451019-4A9C-4BD8-8D97-2D3DE9F6310E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
